--- a/Employee_Reports35/Jason Puzon Dy Q0501.xlsx
+++ b/Employee_Reports35/Jason Puzon Dy Q0501.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,9 +461,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="55" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
     <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -739,40 +739,28 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LOTO (SOPs)</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>ELECTRICAL SAFETY</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>LSME-OHS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>28-Jan-2025</t>
+          <t>05-Oct-2025</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>28-Jan-2026</t>
+          <t>05-Oct-2027</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>86</v>
+        <v>700</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -783,246 +771,25 @@
       <c r="K7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>6</v>
-      </c>
+      <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
+          <t>YOU ARE LISTED AS ; ADMINISTRATOR</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>10-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>10-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>127</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
+          <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr"/>
+      <c r="H8" s="3" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr"/>
       <c r="K8" s="3" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>13-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>13-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>130</v>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>25-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>25-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>142</v>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Equipment Operation Procedure(QDF-SOP-003) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>DFWH</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>LSME-QDF-SOP-003</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>02-May-2025</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>02-May-2026</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>180</v>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>05-Oct-2025</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>05-Oct-2027</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>701</v>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>YOU ARE LISTED AS ; ADMINISTRATOR</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr"/>
-      <c r="J13" s="3" t="inlineStr"/>
-      <c r="K13" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Jason Puzon Dy Q0501.xlsx
+++ b/Employee_Reports35/Jason Puzon Dy Q0501.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -756,11 +756,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
